--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="994" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -570,10 +594,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -617,28 +641,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="3">
+      <c r="A17" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="3">
+      <c r="B17" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="3">
+      <c r="C17" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="3">
+      <c r="D17" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="3">
+      <c r="E17" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="3">
+      <c r="F17" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="3">
+      <c r="G17" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="3">
+      <c r="H17" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -663,28 +687,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="3">
+      <c r="B19" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="3">
+      <c r="C19" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="3">
+      <c r="D19" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="3">
+      <c r="E19" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="3">
+      <c r="F19" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="3">
+      <c r="G19" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="3">
+      <c r="H19" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="3">
+      <c r="I19" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1265,10 +1289,10 @@
       <c r="I39">
         <f>((C39-C38)^2+(D39- D38)^2)^.5</f>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L39" t="n">
@@ -1312,28 +1336,28 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s" s="3">
+      <c r="A41" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B41" t="s" s="3">
+      <c r="B41" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="3">
+      <c r="C41" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D41" t="s" s="3">
+      <c r="D41" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E41" t="s" s="3">
+      <c r="E41" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F41" t="s" s="3">
+      <c r="F41" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G41" t="s" s="3">
+      <c r="G41" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H41" t="s" s="3">
+      <c r="H41" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1358,28 +1382,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="B43" t="s" s="3">
+      <c r="B43" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C43" t="s" s="3">
+      <c r="C43" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D43" t="s" s="3">
+      <c r="D43" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E43" t="s" s="3">
+      <c r="E43" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F43" t="s" s="3">
+      <c r="F43" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G43" t="s" s="3">
+      <c r="G43" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H43" t="s" s="3">
+      <c r="H43" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I43" t="s" s="3">
+      <c r="I43" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2018,10 +2042,10 @@
       <c r="I65">
         <f>((C65-C64)^2+(D65- D64)^2)^.5</f>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L65" t="n">
@@ -2065,28 +2089,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="s" s="3">
+      <c r="A67" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B67" t="s" s="3">
+      <c r="B67" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C67" t="s" s="3">
+      <c r="C67" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D67" t="s" s="3">
+      <c r="D67" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E67" t="s" s="3">
+      <c r="E67" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F67" t="s" s="3">
+      <c r="F67" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G67" t="s" s="3">
+      <c r="G67" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H67" t="s" s="3">
+      <c r="H67" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2111,28 +2135,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="B69" t="s" s="3">
+      <c r="B69" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C69" t="s" s="3">
+      <c r="C69" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D69" t="s" s="3">
+      <c r="D69" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E69" t="s" s="3">
+      <c r="E69" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F69" t="s" s="3">
+      <c r="F69" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G69" t="s" s="3">
+      <c r="G69" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H69" t="s" s="3">
+      <c r="H69" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I69" t="s" s="3">
+      <c r="I69" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2800,10 +2824,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K92" s="3" t="s">
+      <c r="K92" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2847,28 +2871,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="3">
+      <c r="A94" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="3">
+      <c r="B94" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="3">
+      <c r="C94" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D94" t="s" s="3">
+      <c r="D94" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="3">
+      <c r="E94" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="3">
+      <c r="F94" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="3">
+      <c r="G94" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="3">
+      <c r="H94" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2893,28 +2917,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="3">
+      <c r="B96" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="3">
+      <c r="C96" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="3">
+      <c r="D96" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="3">
+      <c r="E96" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="3">
+      <c r="F96" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="3">
+      <c r="G96" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="3">
+      <c r="H96" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="3">
+      <c r="I96" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3466,10 +3490,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="J115" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K115" s="3" t="s">
+      <c r="K115" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3513,28 +3537,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="3">
+      <c r="A117" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="3">
+      <c r="B117" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="3">
+      <c r="C117" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D117" t="s" s="3">
+      <c r="D117" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="3">
+      <c r="E117" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="3">
+      <c r="F117" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="3">
+      <c r="G117" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="3">
+      <c r="H117" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3559,28 +3583,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="3">
+      <c r="B119" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="3">
+      <c r="C119" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="3">
+      <c r="D119" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="3">
+      <c r="E119" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="3">
+      <c r="F119" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="3">
+      <c r="G119" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="3">
+      <c r="H119" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="3">
+      <c r="I119" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3900,10 +3924,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="J130" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K130" s="3" t="s">
+      <c r="K130" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3947,28 +3971,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="3">
+      <c r="A132" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3993,28 +4017,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="3">
+      <c r="B134" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="3">
+      <c r="C134" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="3">
+      <c r="D134" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="3">
+      <c r="E134" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="3">
+      <c r="F134" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="3">
+      <c r="G134" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="3">
+      <c r="H134" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="3">
+      <c r="I134" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4073,10 +4097,10 @@
       <c r="I136">
         <f>((C136-C135)^2+(D136- D135)^2)^.5</f>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="J136" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K136" s="3" t="s">
+      <c r="K136" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L136" t="n">
